--- a/Excel/DCA/2020.12.24 Profit_Trailer_2.0_DCA_Calculator.xlsx
+++ b/Excel/DCA/2020.12.24 Profit_Trailer_2.0_DCA_Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phips\Documents\GitHub\ProfitTrailer\Excel\DCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC4D7A-B4E4-44A3-ADB4-A6E53FF3CB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E7AE6-BD94-4004-ADFD-879E6C8A9D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0D0678C-85B3-486A-B817-EE8F81968550}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <r>
       <t xml:space="preserve">HOW MUCH CAN I AFFORD SAFELY? </t>
@@ -161,15 +161,13 @@
   <si>
     <t>Percentage disponible</t>
   </si>
-  <si>
-    <t>%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
@@ -843,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,160 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,48 +963,6 @@
     <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1239,36 +1042,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,44 +1848,44 @@
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="7"/>
       <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13" t="s">
         <v>6</v>
@@ -1961,11 +1940,11 @@
     </row>
     <row r="4" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -2040,11 +2019,11 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="71">
         <v>1</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="97" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4">
@@ -2115,20 +2094,20 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="86">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="71">
         <v>1</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="6">
         <v>2</v>
       </c>
@@ -2197,16 +2176,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="71">
         <v>1</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="6">
         <v>3</v>
       </c>
@@ -2275,16 +2254,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="71">
         <v>0.5</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="6">
         <v>4</v>
       </c>
@@ -2353,16 +2332,16 @@
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="71">
         <v>0.5</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="6">
         <v>5</v>
       </c>
@@ -2431,18 +2410,18 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="71">
         <v>0.5</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="6">
         <v>6</v>
       </c>
@@ -2511,16 +2490,16 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="71">
         <v>0.5</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="6">
         <v>7</v>
       </c>
@@ -2589,20 +2568,20 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="69">
         <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="71">
         <v>0.155</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="6">
         <v>8</v>
       </c>
@@ -2671,16 +2650,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="71">
         <v>0.1211</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="6">
         <v>9</v>
       </c>
@@ -2749,18 +2728,18 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="71">
         <v>0.1</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="6">
         <v>10</v>
       </c>
@@ -2829,16 +2808,16 @@
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="71">
         <v>0.08</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="6">
         <v>11</v>
       </c>
@@ -2907,16 +2886,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="6">
         <v>12</v>
       </c>
@@ -2985,16 +2964,16 @@
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="71">
         <v>0.06</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="6">
         <v>13</v>
       </c>
@@ -3063,16 +3042,16 @@
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="71">
         <v>0.06</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="6">
         <v>14</v>
       </c>
@@ -3141,18 +3120,18 @@
     </row>
     <row r="19" spans="1:32" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A19" s="7"/>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="23">
         <v>15</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="71">
         <v>0.05</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="6">
         <v>15</v>
       </c>
@@ -3221,16 +3200,16 @@
     </row>
     <row r="20" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="23">
         <v>16</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="71">
         <v>0.05</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="6">
         <v>16</v>
       </c>
@@ -3299,16 +3278,16 @@
     </row>
     <row r="21" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="23">
         <v>17</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="71">
         <v>0.05</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="6">
         <v>17</v>
       </c>
@@ -3377,16 +3356,16 @@
     </row>
     <row r="22" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="24">
         <v>18</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="71">
         <v>0.05</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="6">
         <v>18</v>
       </c>
@@ -3455,16 +3434,16 @@
     </row>
     <row r="23" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="24">
         <v>19</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="71">
         <v>0.05</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="6">
         <v>19</v>
       </c>
@@ -3533,16 +3512,16 @@
     </row>
     <row r="24" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="24">
         <v>20</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="71">
         <v>0.05</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="6">
         <v>20</v>
       </c>
@@ -3619,11 +3598,11 @@
       <c r="D25" s="23">
         <v>21</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="71">
         <v>0.05</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="6">
         <v>21</v>
       </c>
@@ -3700,11 +3679,11 @@
       <c r="D26" s="23">
         <v>22</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="71">
         <v>0.05</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="47"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="6">
         <v>22</v>
       </c>
@@ -3773,16 +3752,16 @@
     </row>
     <row r="27" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="23">
         <v>23</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="71">
         <v>0.05</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="6">
         <v>23</v>
       </c>
@@ -3859,11 +3838,11 @@
       <c r="D28" s="23">
         <v>24</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="71">
         <v>0.05</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="6">
         <v>24</v>
       </c>
@@ -3932,16 +3911,16 @@
     </row>
     <row r="29" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="23">
         <v>25</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="71">
         <v>0.05</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="47"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="6">
         <v>25</v>
       </c>
@@ -4010,16 +3989,16 @@
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="23">
         <v>26</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="71">
         <v>0.05</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="6">
         <v>26</v>
       </c>
@@ -4088,16 +4067,16 @@
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="23">
         <v>27</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="71">
         <v>0.05</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="6">
         <v>27</v>
       </c>
@@ -4166,16 +4145,16 @@
     </row>
     <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="23">
         <v>28</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="71">
         <v>0.05</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="6">
         <v>28</v>
       </c>
@@ -4244,18 +4223,18 @@
     </row>
     <row r="33" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="7"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="23">
         <v>29</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="71">
         <v>0.05</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="6">
         <v>29</v>
       </c>
@@ -4329,11 +4308,11 @@
       <c r="D34" s="5">
         <v>30</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="71">
         <v>0.05</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="6">
         <v>30</v>
       </c>
@@ -7246,17 +7225,36 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E8:F8"/>
@@ -7273,36 +7271,17 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:W34">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
@@ -7381,44 +7360,44 @@
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="7"/>
       <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13" t="s">
         <v>6</v>
@@ -7473,11 +7452,11 @@
     </row>
     <row r="4" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -7552,11 +7531,11 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="71">
         <v>1</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="97" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4">
@@ -7627,20 +7606,20 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="86">
         <v>2000</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="71">
         <v>0.5</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="6">
         <v>2</v>
       </c>
@@ -7709,16 +7688,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="71">
         <v>0.5</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="6">
         <v>3</v>
       </c>
@@ -7787,16 +7766,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="71">
         <v>0.25</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="6">
         <v>4</v>
       </c>
@@ -7865,16 +7844,16 @@
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="71">
         <v>0.3</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="6">
         <v>5</v>
       </c>
@@ -7943,18 +7922,18 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="71">
         <v>0.25</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="6">
         <v>6</v>
       </c>
@@ -8023,16 +8002,16 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="71">
         <v>0.2</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="6">
         <v>7</v>
       </c>
@@ -8101,18 +8080,18 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="71">
         <v>0.155</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="6">
         <v>8</v>
       </c>
@@ -8181,16 +8160,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="71">
         <v>0.1211</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="6">
         <v>9</v>
       </c>
@@ -8259,20 +8238,20 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="105">
         <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="71">
         <v>0.1</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="6">
         <v>10</v>
       </c>
@@ -8341,16 +8320,16 @@
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="71">
         <v>0.08</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="6">
         <v>11</v>
       </c>
@@ -8419,16 +8398,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="6">
         <v>12</v>
       </c>
@@ -8497,16 +8476,16 @@
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="71">
         <v>0.06</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="6">
         <v>13</v>
       </c>
@@ -8575,16 +8554,16 @@
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="71">
         <v>0.06</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="6">
         <v>14</v>
       </c>
@@ -8653,18 +8632,18 @@
     </row>
     <row r="19" spans="1:32" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A19" s="7"/>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="23">
         <v>15</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="71">
         <v>0.05</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="6">
         <v>15</v>
       </c>
@@ -8733,16 +8712,16 @@
     </row>
     <row r="20" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="23">
         <v>16</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="71">
         <v>0.05</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="47"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="6">
         <v>16</v>
       </c>
@@ -8811,16 +8790,16 @@
     </row>
     <row r="21" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="23">
         <v>17</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="71">
         <v>0.05</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="47"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="6">
         <v>17</v>
       </c>
@@ -8889,16 +8868,16 @@
     </row>
     <row r="22" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="24">
         <v>18</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="71">
         <v>0.05</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="47"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="6">
         <v>18</v>
       </c>
@@ -8967,16 +8946,16 @@
     </row>
     <row r="23" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="24">
         <v>19</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="71">
         <v>0.05</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="6">
         <v>19</v>
       </c>
@@ -9045,16 +9024,16 @@
     </row>
     <row r="24" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="24">
         <v>20</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="71">
         <v>0.05</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="6">
         <v>20</v>
       </c>
@@ -9131,11 +9110,11 @@
       <c r="D25" s="23">
         <v>21</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="71">
         <v>0.05</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="6">
         <v>21</v>
       </c>
@@ -9212,11 +9191,11 @@
       <c r="D26" s="23">
         <v>22</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="71">
         <v>0.05</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="47"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="6">
         <v>22</v>
       </c>
@@ -9285,16 +9264,16 @@
     </row>
     <row r="27" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="23">
         <v>23</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="71">
         <v>0.05</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="6">
         <v>23</v>
       </c>
@@ -9371,11 +9350,11 @@
       <c r="D28" s="23">
         <v>24</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="71">
         <v>0.05</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="6">
         <v>24</v>
       </c>
@@ -9444,16 +9423,16 @@
     </row>
     <row r="29" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="23">
         <v>25</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="71">
         <v>0.05</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="47"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="6">
         <v>25</v>
       </c>
@@ -9522,16 +9501,16 @@
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="23">
         <v>26</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="71">
         <v>0.05</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="6">
         <v>26</v>
       </c>
@@ -9600,16 +9579,16 @@
     </row>
     <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="23">
         <v>27</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="71">
         <v>0.05</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="6">
         <v>27</v>
       </c>
@@ -9678,16 +9657,16 @@
     </row>
     <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="23">
         <v>28</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="71">
         <v>0.05</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="6">
         <v>28</v>
       </c>
@@ -9756,18 +9735,18 @@
     </row>
     <row r="33" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="7"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="23">
         <v>29</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="71">
         <v>0.05</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="6">
         <v>29</v>
       </c>
@@ -9841,11 +9820,11 @@
       <c r="D34" s="5">
         <v>30</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="71">
         <v>0.05</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="6">
         <v>30</v>
       </c>
@@ -12758,17 +12737,36 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E8:F8"/>
@@ -12785,36 +12783,17 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:W34">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
@@ -12835,8 +12814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E847558C-9CD0-48BF-87A5-9768A80357F9}">
   <dimension ref="A1:BI974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX28" sqref="AX28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12851,19 +12830,19 @@
     <col min="9" max="21" width="15.6640625" style="8" customWidth="1"/>
     <col min="22" max="46" width="15.6640625" style="8" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="14.44140625" style="8"/>
-    <col min="48" max="48" width="14.44140625" style="105"/>
-    <col min="49" max="49" width="14.44140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" style="105" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.44140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="105" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.33203125" style="105" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="105" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" style="105" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.5546875" style="105" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="11.77734375" style="105" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.44140625" style="105" customWidth="1"/>
-    <col min="61" max="61" width="16.88671875" style="105" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.44140625" style="43"/>
+    <col min="49" max="49" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="11.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.44140625" style="43" customWidth="1"/>
+    <col min="61" max="61" width="16.88671875" style="43" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
@@ -12902,50 +12881,50 @@
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="7"/>
       <c r="AF2" s="9"/>
-      <c r="AW2" s="106" t="s">
+      <c r="AW2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="106" t="s">
+      <c r="AX2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="106"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
     </row>
     <row r="3" spans="1:61" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="1"/>
       <c r="H3" s="27" t="s">
         <v>6</v>
@@ -13064,35 +13043,35 @@
       <c r="AT3" s="27">
         <v>38</v>
       </c>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="93">
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="42">
         <v>1000</v>
       </c>
-      <c r="AX3" s="93">
+      <c r="AX3" s="42">
         <v>1000</v>
       </c>
-      <c r="AY3" s="107">
+      <c r="AY3" s="45">
         <f>AW3/AX3</f>
         <v>1</v>
       </c>
-      <c r="AZ3" s="106"/>
-      <c r="BA3" s="106"/>
-      <c r="BB3" s="106"/>
-      <c r="BC3" s="106"/>
-      <c r="BD3" s="106"/>
-      <c r="BE3" s="106"/>
-      <c r="BF3" s="106"/>
-      <c r="BG3" s="106"/>
-      <c r="BH3" s="106"/>
-      <c r="BI3" s="106"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
     </row>
     <row r="4" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -13249,58 +13228,58 @@
         <f t="shared" si="5"/>
         <v>1900</v>
       </c>
-      <c r="AW4" s="106">
+      <c r="AW4" s="44">
         <v>1</v>
       </c>
-      <c r="AX4" s="106">
+      <c r="AX4" s="44">
         <v>2</v>
       </c>
-      <c r="AY4" s="106">
+      <c r="AY4" s="44">
         <v>3</v>
       </c>
-      <c r="AZ4" s="106">
+      <c r="AZ4" s="44">
         <v>4</v>
       </c>
-      <c r="BA4" s="106">
+      <c r="BA4" s="44">
         <v>5</v>
       </c>
-      <c r="BB4" s="106">
+      <c r="BB4" s="44">
         <v>6</v>
       </c>
-      <c r="BC4" s="106">
+      <c r="BC4" s="44">
         <v>7</v>
       </c>
-      <c r="BD4" s="106">
+      <c r="BD4" s="44">
         <v>8</v>
       </c>
-      <c r="BE4" s="106">
+      <c r="BE4" s="44">
         <v>9</v>
       </c>
-      <c r="BF4" s="106">
+      <c r="BF4" s="44">
         <v>10</v>
       </c>
-      <c r="BG4" s="106">
+      <c r="BG4" s="44">
         <v>11</v>
       </c>
-      <c r="BH4" s="106">
+      <c r="BH4" s="44">
         <v>12</v>
       </c>
-      <c r="BI4" s="106">
+      <c r="BI4" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="80"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="108">
         <v>0.5</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="46" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="97" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4">
@@ -13458,79 +13437,79 @@
         <f t="shared" si="6"/>
         <v>2850</v>
       </c>
-      <c r="AV5" s="105">
+      <c r="AV5" s="43">
         <f>H5</f>
         <v>1</v>
       </c>
-      <c r="AW5" s="108">
+      <c r="AW5" s="46">
         <f>IF(I5&lt;=$AW$3,I5,"")</f>
         <v>75</v>
       </c>
-      <c r="AX5" s="108">
+      <c r="AX5" s="46">
         <f t="shared" ref="AX5:BI5" si="7">IF(J5&lt;=$AW$3,J5,"")</f>
         <v>150</v>
       </c>
-      <c r="AY5" s="108">
+      <c r="AY5" s="46">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="AZ5" s="108">
+      <c r="AZ5" s="46">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="BA5" s="108">
+      <c r="BA5" s="46">
         <f t="shared" si="7"/>
         <v>375</v>
       </c>
-      <c r="BB5" s="108">
+      <c r="BB5" s="46">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="BC5" s="108">
+      <c r="BC5" s="46">
         <f t="shared" si="7"/>
         <v>525</v>
       </c>
-      <c r="BD5" s="108">
+      <c r="BD5" s="46">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="BE5" s="108">
+      <c r="BE5" s="46">
         <f t="shared" si="7"/>
         <v>675</v>
       </c>
-      <c r="BF5" s="108">
+      <c r="BF5" s="46">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="BG5" s="108">
+      <c r="BG5" s="46">
         <f t="shared" si="7"/>
         <v>825</v>
       </c>
-      <c r="BH5" s="108">
+      <c r="BH5" s="46">
         <f t="shared" si="7"/>
         <v>900</v>
       </c>
-      <c r="BI5" s="108">
+      <c r="BI5" s="46">
         <f t="shared" si="7"/>
         <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="125">
         <v>1000</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="108">
         <v>1</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="6">
         <v>2</v>
       </c>
@@ -13686,75 +13665,75 @@
         <f t="shared" ref="AT6:AT64" si="45">IF(ISBLANK($E6),"",SUM(AT5*$E6)+AT5)</f>
         <v>5700</v>
       </c>
-      <c r="AV6" s="105">
+      <c r="AV6" s="43">
         <f>H6</f>
         <v>2</v>
       </c>
-      <c r="AW6" s="108">
+      <c r="AW6" s="46">
         <f t="shared" ref="AW6:AW8" si="46">IF(I6&lt;=$AW$3,I6,"")</f>
         <v>150</v>
       </c>
-      <c r="AX6" s="108">
+      <c r="AX6" s="46">
         <f t="shared" ref="AX6:AX8" si="47">IF(J6&lt;=$AW$3,J6,"")</f>
         <v>300</v>
       </c>
-      <c r="AY6" s="108">
+      <c r="AY6" s="46">
         <f t="shared" ref="AY6:AY8" si="48">IF(K6&lt;=$AW$3,K6,"")</f>
         <v>450</v>
       </c>
-      <c r="AZ6" s="108">
+      <c r="AZ6" s="46">
         <f t="shared" ref="AZ6:AZ8" si="49">IF(L6&lt;=$AW$3,L6,"")</f>
         <v>600</v>
       </c>
-      <c r="BA6" s="108">
+      <c r="BA6" s="46">
         <f t="shared" ref="BA6:BA8" si="50">IF(M6&lt;=$AW$3,M6,"")</f>
         <v>750</v>
       </c>
-      <c r="BB6" s="108">
+      <c r="BB6" s="46">
         <f t="shared" ref="BB6:BB8" si="51">IF(N6&lt;=$AW$3,N6,"")</f>
         <v>900</v>
       </c>
-      <c r="BC6" s="108" t="str">
+      <c r="BC6" s="46" t="str">
         <f t="shared" ref="BC6:BC8" si="52">IF(O6&lt;=$AW$3,O6,"")</f>
         <v/>
       </c>
-      <c r="BD6" s="108" t="str">
+      <c r="BD6" s="46" t="str">
         <f t="shared" ref="BD6:BD8" si="53">IF(P6&lt;=$AW$3,P6,"")</f>
         <v/>
       </c>
-      <c r="BE6" s="108" t="str">
+      <c r="BE6" s="46" t="str">
         <f t="shared" ref="BE6:BE8" si="54">IF(Q6&lt;=$AW$3,Q6,"")</f>
         <v/>
       </c>
-      <c r="BF6" s="108" t="str">
+      <c r="BF6" s="46" t="str">
         <f t="shared" ref="BF6:BF8" si="55">IF(R6&lt;=$AW$3,R6,"")</f>
         <v/>
       </c>
-      <c r="BG6" s="108" t="str">
+      <c r="BG6" s="46" t="str">
         <f t="shared" ref="BG6:BG8" si="56">IF(S6&lt;=$AW$3,S6,"")</f>
         <v/>
       </c>
-      <c r="BH6" s="108" t="str">
+      <c r="BH6" s="46" t="str">
         <f t="shared" ref="BH6:BH8" si="57">IF(T6&lt;=$AW$3,T6,"")</f>
         <v/>
       </c>
-      <c r="BI6" s="108" t="str">
+      <c r="BI6" s="46" t="str">
         <f t="shared" ref="BI6:BI8" si="58">IF(U6&lt;=$AW$3,U6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="108">
         <v>1</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="6">
         <v>3</v>
       </c>
@@ -13910,75 +13889,75 @@
         <f t="shared" si="45"/>
         <v>11400</v>
       </c>
-      <c r="AV7" s="105">
+      <c r="AV7" s="43">
         <f>H7</f>
         <v>3</v>
       </c>
-      <c r="AW7" s="108">
+      <c r="AW7" s="46">
         <f t="shared" si="46"/>
         <v>300</v>
       </c>
-      <c r="AX7" s="108">
+      <c r="AX7" s="46">
         <f t="shared" si="47"/>
         <v>600</v>
       </c>
-      <c r="AY7" s="108">
+      <c r="AY7" s="46">
         <f t="shared" si="48"/>
         <v>900</v>
       </c>
-      <c r="AZ7" s="108" t="str">
+      <c r="AZ7" s="46" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BA7" s="108" t="str">
+      <c r="BA7" s="46" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BB7" s="108" t="str">
+      <c r="BB7" s="46" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BC7" s="108" t="str">
+      <c r="BC7" s="46" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BD7" s="108" t="str">
+      <c r="BD7" s="46" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BE7" s="108" t="str">
+      <c r="BE7" s="46" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BF7" s="108" t="str">
+      <c r="BF7" s="46" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BG7" s="108" t="str">
+      <c r="BG7" s="46" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BH7" s="108" t="str">
+      <c r="BH7" s="46" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BI7" s="108" t="str">
+      <c r="BI7" s="46" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="108">
         <v>2</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="6">
         <v>4</v>
       </c>
@@ -14134,75 +14113,75 @@
         <f t="shared" si="45"/>
         <v>34200</v>
       </c>
-      <c r="AV8" s="105">
+      <c r="AV8" s="43">
         <f>H8</f>
         <v>4</v>
       </c>
-      <c r="AW8" s="108">
+      <c r="AW8" s="46">
         <f t="shared" si="46"/>
         <v>900</v>
       </c>
-      <c r="AX8" s="108" t="str">
+      <c r="AX8" s="46" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="AY8" s="108" t="str">
+      <c r="AY8" s="46" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="AZ8" s="108" t="str">
+      <c r="AZ8" s="46" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BA8" s="108" t="str">
+      <c r="BA8" s="46" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BB8" s="108" t="str">
+      <c r="BB8" s="46" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BC8" s="108" t="str">
+      <c r="BC8" s="46" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BD8" s="108" t="str">
+      <c r="BD8" s="46" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BE8" s="108" t="str">
+      <c r="BE8" s="46" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BF8" s="108" t="str">
+      <c r="BF8" s="46" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BG8" s="108" t="str">
+      <c r="BG8" s="46" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BH8" s="108" t="str">
+      <c r="BH8" s="46" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BI8" s="108" t="str">
+      <c r="BI8" s="46" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="108">
         <v>2</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="6">
         <v>5</v>
       </c>
@@ -14358,24 +14337,24 @@
         <f t="shared" si="45"/>
         <v>102600</v>
       </c>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
     </row>
     <row r="10" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="108">
         <v>2</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="47"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="6">
         <v>6</v>
       </c>
@@ -14531,74 +14510,74 @@
         <f t="shared" si="45"/>
         <v>307800</v>
       </c>
-      <c r="AV10" s="105">
+      <c r="AV10" s="43">
         <v>1</v>
       </c>
-      <c r="AW10" s="111">
+      <c r="AW10" s="49">
         <f>IFERROR(IF((AW5/$AX$3)&lt;=$AY$3,AW5/$AX$3,""),"")</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AX10" s="112">
+      <c r="AX10" s="50">
         <f t="shared" ref="AX10:BI10" si="59">IFERROR(IF((AX5/$AX$3)&lt;=$AY$3,AX5/$AX$3,""),"")</f>
         <v>0.15</v>
       </c>
-      <c r="AY10" s="112">
+      <c r="AY10" s="50">
         <f t="shared" si="59"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="AZ10" s="112">
+      <c r="AZ10" s="50">
         <f t="shared" si="59"/>
         <v>0.3</v>
       </c>
-      <c r="BA10" s="112">
+      <c r="BA10" s="50">
         <f t="shared" si="59"/>
         <v>0.375</v>
       </c>
-      <c r="BB10" s="112">
+      <c r="BB10" s="50">
         <f t="shared" si="59"/>
         <v>0.45</v>
       </c>
-      <c r="BC10" s="112">
+      <c r="BC10" s="50">
         <f t="shared" si="59"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="BD10" s="112">
+      <c r="BD10" s="50">
         <f t="shared" si="59"/>
         <v>0.6</v>
       </c>
-      <c r="BE10" s="112">
+      <c r="BE10" s="50">
         <f t="shared" si="59"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="BF10" s="112">
+      <c r="BF10" s="50">
         <f t="shared" si="59"/>
         <v>0.75</v>
       </c>
-      <c r="BG10" s="112">
+      <c r="BG10" s="50">
         <f t="shared" si="59"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="BH10" s="112">
+      <c r="BH10" s="50">
         <f t="shared" si="59"/>
         <v>0.9</v>
       </c>
-      <c r="BI10" s="113">
+      <c r="BI10" s="51">
         <f t="shared" si="59"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="108">
         <v>2</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="6">
         <v>7</v>
       </c>
@@ -14754,76 +14733,76 @@
         <f t="shared" si="45"/>
         <v>923400</v>
       </c>
-      <c r="AV11" s="105">
+      <c r="AV11" s="43">
         <v>2</v>
       </c>
-      <c r="AW11" s="114">
+      <c r="AW11" s="52">
         <f t="shared" ref="AW11:BI13" si="60">IFERROR(IF((AW6/$AX$3)&lt;=$AY$3,AW6/$AX$3,""),"")</f>
         <v>0.15</v>
       </c>
-      <c r="AX11" s="115">
+      <c r="AX11" s="53">
         <f t="shared" si="60"/>
         <v>0.3</v>
       </c>
-      <c r="AY11" s="115">
+      <c r="AY11" s="53">
         <f t="shared" si="60"/>
         <v>0.45</v>
       </c>
-      <c r="AZ11" s="115">
+      <c r="AZ11" s="53">
         <f t="shared" si="60"/>
         <v>0.6</v>
       </c>
-      <c r="BA11" s="115">
+      <c r="BA11" s="53">
         <f t="shared" si="60"/>
         <v>0.75</v>
       </c>
-      <c r="BB11" s="115">
+      <c r="BB11" s="53">
         <f t="shared" si="60"/>
         <v>0.9</v>
       </c>
-      <c r="BC11" s="115" t="str">
+      <c r="BC11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BD11" s="115" t="str">
+      <c r="BD11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BE11" s="115" t="str">
+      <c r="BE11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BF11" s="115" t="str">
+      <c r="BF11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BG11" s="115" t="str">
+      <c r="BG11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BH11" s="115" t="str">
+      <c r="BH11" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BI11" s="116" t="str">
+      <c r="BI11" s="54" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="108">
         <v>2</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="6">
         <v>8</v>
       </c>
@@ -14979,74 +14958,74 @@
         <f t="shared" si="45"/>
         <v>2770200</v>
       </c>
-      <c r="AV12" s="105">
+      <c r="AV12" s="43">
         <v>3</v>
       </c>
-      <c r="AW12" s="114">
+      <c r="AW12" s="52">
         <f t="shared" si="60"/>
         <v>0.3</v>
       </c>
-      <c r="AX12" s="115">
+      <c r="AX12" s="53">
         <f t="shared" si="60"/>
         <v>0.6</v>
       </c>
-      <c r="AY12" s="115">
+      <c r="AY12" s="53">
         <f t="shared" si="60"/>
         <v>0.9</v>
       </c>
-      <c r="AZ12" s="115" t="str">
+      <c r="AZ12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BA12" s="115" t="str">
+      <c r="BA12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BB12" s="115" t="str">
+      <c r="BB12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BC12" s="115" t="str">
+      <c r="BC12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BD12" s="115" t="str">
+      <c r="BD12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BE12" s="115" t="str">
+      <c r="BE12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BF12" s="115" t="str">
+      <c r="BF12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BG12" s="115" t="str">
+      <c r="BG12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BH12" s="115" t="str">
+      <c r="BH12" s="53" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BI12" s="116" t="str">
+      <c r="BI12" s="54" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="108">
         <v>2</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="6">
         <v>9</v>
       </c>
@@ -15202,78 +15181,78 @@
         <f t="shared" si="45"/>
         <v>8310600</v>
       </c>
-      <c r="AV13" s="105">
+      <c r="AV13" s="43">
         <v>4</v>
       </c>
-      <c r="AW13" s="117">
+      <c r="AW13" s="55">
         <f t="shared" si="60"/>
         <v>0.9</v>
       </c>
-      <c r="AX13" s="118" t="str">
+      <c r="AX13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="AY13" s="118" t="str">
+      <c r="AY13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="AZ13" s="118" t="str">
+      <c r="AZ13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BA13" s="118" t="str">
+      <c r="BA13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BB13" s="118" t="str">
+      <c r="BB13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BC13" s="118" t="str">
+      <c r="BC13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BD13" s="118" t="str">
+      <c r="BD13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BE13" s="118" t="str">
+      <c r="BE13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BF13" s="118" t="str">
+      <c r="BF13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BG13" s="118" t="str">
+      <c r="BG13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BH13" s="118" t="str">
+      <c r="BH13" s="56" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BI13" s="119" t="str">
+      <c r="BI13" s="57" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="120">
         <v>50</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="108">
         <v>2</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="47"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="6">
         <v>10</v>
       </c>
@@ -15432,14 +15411,14 @@
     </row>
     <row r="15" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="6">
         <v>11</v>
       </c>
@@ -15595,72 +15574,72 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AV15" s="105">
+      <c r="AV15" s="43">
         <v>1</v>
       </c>
-      <c r="AW15" s="120" t="b">
+      <c r="AW15" s="58" t="b">
         <f t="shared" ref="AW15:AX17" si="61">$AY$3&gt;AW10</f>
         <v>1</v>
       </c>
-      <c r="AX15" s="121" t="b">
+      <c r="AX15" s="59" t="b">
         <f>$AY$3&gt;AX10</f>
         <v>1</v>
       </c>
-      <c r="AY15" s="121" t="b">
+      <c r="AY15" s="59" t="b">
         <f t="shared" ref="AY15:BI16" si="62">$AY$3&gt;AY10</f>
         <v>1</v>
       </c>
-      <c r="AZ15" s="121" t="b">
+      <c r="AZ15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BA15" s="121" t="b">
+      <c r="BA15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BB15" s="121" t="b">
+      <c r="BB15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BC15" s="121" t="b">
+      <c r="BC15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BD15" s="121" t="b">
+      <c r="BD15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BE15" s="121" t="b">
+      <c r="BE15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BF15" s="121" t="b">
+      <c r="BF15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BG15" s="121" t="b">
+      <c r="BG15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BH15" s="121" t="b">
+      <c r="BH15" s="59" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BI15" s="122" t="b">
+      <c r="BI15" s="60" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="47"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="6">
         <v>12</v>
       </c>
@@ -15816,51 +15795,51 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AV16" s="105">
+      <c r="AV16" s="43">
         <v>2</v>
       </c>
-      <c r="AW16" s="123" t="b">
+      <c r="AW16" s="61" t="b">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AX16" s="124" t="b">
+      <c r="AX16" s="62" t="b">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AY16" s="124" t="b">
+      <c r="AY16" s="62" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="AZ16" s="124" t="b">
+      <c r="AZ16" s="62" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BA16" s="124" t="b">
+      <c r="BA16" s="62" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BB16" s="124" t="b">
+      <c r="BB16" s="62" t="b">
         <f t="shared" si="62"/>
         <v>1</v>
       </c>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
-      <c r="BE16" s="125"/>
-      <c r="BF16" s="125"/>
-      <c r="BG16" s="125"/>
-      <c r="BH16" s="125"/>
-      <c r="BI16" s="126"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="63"/>
+      <c r="BI16" s="64"/>
     </row>
     <row r="17" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="47"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="6">
         <v>13</v>
       </c>
@@ -16016,39 +15995,39 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AV17" s="105">
+      <c r="AV17" s="43">
         <v>3</v>
       </c>
-      <c r="AW17" s="123" t="b">
+      <c r="AW17" s="61" t="b">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AX17" s="124" t="b">
+      <c r="AX17" s="62" t="b">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="125"/>
-      <c r="BD17" s="125"/>
-      <c r="BE17" s="125"/>
-      <c r="BF17" s="125"/>
-      <c r="BG17" s="125"/>
-      <c r="BH17" s="125"/>
-      <c r="BI17" s="126"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="64"/>
     </row>
     <row r="18" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="47"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="6">
         <v>14</v>
       </c>
@@ -16204,36 +16183,36 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AV18" s="105">
+      <c r="AV18" s="43">
         <v>4</v>
       </c>
-      <c r="AW18" s="127" t="b">
+      <c r="AW18" s="65" t="b">
         <f>$AY$3&gt;AW13</f>
         <v>1</v>
       </c>
-      <c r="AX18" s="128"/>
-      <c r="AY18" s="129"/>
-      <c r="AZ18" s="129"/>
-      <c r="BA18" s="129"/>
-      <c r="BB18" s="129"/>
-      <c r="BC18" s="129"/>
-      <c r="BD18" s="129"/>
-      <c r="BE18" s="129"/>
-      <c r="BF18" s="129"/>
-      <c r="BG18" s="129"/>
-      <c r="BH18" s="129"/>
-      <c r="BI18" s="130"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="67"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="68"/>
     </row>
     <row r="19" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="7"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="5">
         <v>15</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="47"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="6">
         <v>15</v>
       </c>
@@ -16392,14 +16371,14 @@
     </row>
     <row r="20" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="5">
         <v>16</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="47"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="6">
         <v>16</v>
       </c>
@@ -16555,17 +16534,18 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="BB20" s="134"/>
     </row>
     <row r="21" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="5">
         <v>17</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="47"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="6">
         <v>17</v>
       </c>
@@ -16721,17 +16701,20 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="AW21" s="133"/>
+      <c r="AX21" s="131"/>
+      <c r="BB21" s="134"/>
     </row>
     <row r="22" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="6">
         <v>18</v>
       </c>
@@ -16887,17 +16870,18 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="AW22" s="44"/>
     </row>
     <row r="23" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="1">
         <v>19</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="47"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="6">
         <v>19</v>
       </c>
@@ -17053,38 +17037,18 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AW23" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX23" s="132" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY23" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ23" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA23" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB23" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC23" s="133" t="s">
-        <v>31</v>
-      </c>
+      <c r="AW23" s="132"/>
     </row>
     <row r="24" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="1">
         <v>20</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="47"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="6">
         <v>20</v>
       </c>
@@ -17240,36 +17204,21 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AW24" s="134">
-        <f>AW3</f>
-        <v>1000</v>
-      </c>
-      <c r="AX24" s="135"/>
-      <c r="AY24" s="136">
-        <f>AX3</f>
-        <v>1000</v>
-      </c>
-      <c r="AZ24" s="135"/>
-      <c r="BA24" s="135">
-        <v>100</v>
-      </c>
-      <c r="BB24" s="135"/>
-      <c r="BC24" s="140"/>
-      <c r="BD24" s="106"/>
+      <c r="AW24" s="132"/>
     </row>
     <row r="25" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="85">
+      <c r="C25" s="34">
         <f>C12%*C6</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
         <v>21</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="47"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="6">
         <v>21</v>
       </c>
@@ -17425,20 +17374,21 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
+      <c r="AW25" s="132"/>
     </row>
     <row r="26" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="85">
+      <c r="C26" s="34">
         <f>C14</f>
         <v>50</v>
       </c>
       <c r="D26" s="5">
         <v>22</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="47"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="6">
         <v>22</v>
       </c>
@@ -17594,24 +17544,18 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC26" s="137">
-        <f>((AW24/AY24)*100)</f>
-        <v>100</v>
-      </c>
-      <c r="BD26" s="138" t="s">
-        <v>37</v>
-      </c>
+      <c r="AW26" s="132"/>
     </row>
     <row r="27" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="5">
         <v>23</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="6">
         <v>23</v>
       </c>
@@ -17766,25 +17710,21 @@
       <c r="AT27" s="20" t="str">
         <f t="shared" si="45"/>
         <v/>
-      </c>
-      <c r="BC27" s="139" t="b">
-        <f>((AW24/AY24)*100)&gt;=BC24</f>
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="85">
+      <c r="C28" s="34">
         <f>IF(C12="",SUM(C6*C14),C6*C12/100)</f>
         <v>50000</v>
       </c>
       <c r="D28" s="5">
         <v>24</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="6">
         <v>24</v>
       </c>
@@ -17943,14 +17883,14 @@
     </row>
     <row r="29" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="5">
         <v>25</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="6">
         <v>25</v>
       </c>
@@ -18109,14 +18049,14 @@
     </row>
     <row r="30" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="5">
         <v>26</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="47"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="6">
         <v>26</v>
       </c>
@@ -18275,14 +18215,14 @@
     </row>
     <row r="31" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="5">
         <v>27</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="47"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="6">
         <v>27</v>
       </c>
@@ -18441,14 +18381,14 @@
     </row>
     <row r="32" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="5">
         <v>28</v>
       </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="47"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="6">
         <v>28</v>
       </c>
@@ -18607,14 +18547,14 @@
     </row>
     <row r="33" spans="1:61" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="5">
         <v>29</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="47"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="6">
         <v>29</v>
       </c>
@@ -18770,20 +18710,20 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="105"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="106"/>
-      <c r="BG33" s="106"/>
-      <c r="BH33" s="106"/>
-      <c r="BI33" s="106"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
     </row>
     <row r="34" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -18792,9 +18732,9 @@
       <c r="D34" s="5">
         <v>30</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="47"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="6">
         <v>30</v>
       </c>
@@ -18958,9 +18898,9 @@
       <c r="D35" s="5">
         <v>31</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="46" t="s">
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="97" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="4">
@@ -19123,9 +19063,9 @@
       <c r="D36" s="5">
         <v>32</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="47"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="6">
         <v>32</v>
       </c>
@@ -19286,9 +19226,9 @@
       <c r="D37" s="5">
         <v>33</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="47"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="6">
         <v>33</v>
       </c>
@@ -19449,9 +19389,9 @@
       <c r="D38" s="5">
         <v>34</v>
       </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="47"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="98"/>
       <c r="H38" s="6">
         <v>34</v>
       </c>
@@ -19612,9 +19552,9 @@
       <c r="D39" s="5">
         <v>35</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="47"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="6">
         <v>35</v>
       </c>
@@ -19775,9 +19715,9 @@
       <c r="D40" s="5">
         <v>36</v>
       </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="47"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="6">
         <v>36</v>
       </c>
@@ -19938,9 +19878,9 @@
       <c r="D41" s="5">
         <v>37</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="47"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="6">
         <v>37</v>
       </c>
@@ -20101,9 +20041,9 @@
       <c r="D42" s="5">
         <v>38</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="47"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="6">
         <v>38</v>
       </c>
@@ -20264,9 +20204,9 @@
       <c r="D43" s="5">
         <v>39</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="47"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="6">
         <v>39</v>
       </c>
@@ -20427,9 +20367,9 @@
       <c r="D44" s="5">
         <v>40</v>
       </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="47"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="6">
         <v>40</v>
       </c>
@@ -20590,9 +20530,9 @@
       <c r="D45" s="5">
         <v>41</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="98"/>
       <c r="H45" s="6">
         <v>41</v>
       </c>
@@ -20753,9 +20693,9 @@
       <c r="D46" s="5">
         <v>42</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="6">
         <v>42</v>
       </c>
@@ -20916,9 +20856,9 @@
       <c r="D47" s="5">
         <v>43</v>
       </c>
-      <c r="E47" s="101"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="98"/>
       <c r="H47" s="6">
         <v>43</v>
       </c>
@@ -21079,9 +21019,9 @@
       <c r="D48" s="5">
         <v>44</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="6">
         <v>44</v>
       </c>
@@ -21242,9 +21182,9 @@
       <c r="D49" s="5">
         <v>45</v>
       </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="98"/>
       <c r="H49" s="6">
         <v>45</v>
       </c>
@@ -21405,9 +21345,9 @@
       <c r="D50" s="5">
         <v>46</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="47"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="98"/>
       <c r="H50" s="6">
         <v>46</v>
       </c>
@@ -21568,9 +21508,9 @@
       <c r="D51" s="5">
         <v>47</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="47"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="98"/>
       <c r="H51" s="6">
         <v>47</v>
       </c>
@@ -21731,9 +21671,9 @@
       <c r="D52" s="1">
         <v>48</v>
       </c>
-      <c r="E52" s="101"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="47"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="98"/>
       <c r="H52" s="6">
         <v>48</v>
       </c>
@@ -21894,9 +21834,9 @@
       <c r="D53" s="1">
         <v>49</v>
       </c>
-      <c r="E53" s="101"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="98"/>
       <c r="H53" s="6">
         <v>49</v>
       </c>
@@ -22057,9 +21997,9 @@
       <c r="D54" s="1">
         <v>50</v>
       </c>
-      <c r="E54" s="101"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="47"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="98"/>
       <c r="H54" s="6">
         <v>50</v>
       </c>
@@ -22220,9 +22160,9 @@
       <c r="D55" s="5">
         <v>51</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="47"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="98"/>
       <c r="H55" s="6">
         <v>51</v>
       </c>
@@ -22383,9 +22323,9 @@
       <c r="D56" s="5">
         <v>52</v>
       </c>
-      <c r="E56" s="101"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="47"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="98"/>
       <c r="H56" s="6">
         <v>52</v>
       </c>
@@ -22546,9 +22486,9 @@
       <c r="D57" s="5">
         <v>53</v>
       </c>
-      <c r="E57" s="101"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="98"/>
       <c r="H57" s="6">
         <v>53</v>
       </c>
@@ -22709,9 +22649,9 @@
       <c r="D58" s="5">
         <v>54</v>
       </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="47"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="98"/>
       <c r="H58" s="6">
         <v>54</v>
       </c>
@@ -22872,9 +22812,9 @@
       <c r="D59" s="5">
         <v>55</v>
       </c>
-      <c r="E59" s="101"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="47"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="98"/>
       <c r="H59" s="6">
         <v>55</v>
       </c>
@@ -23035,9 +22975,9 @@
       <c r="D60" s="5">
         <v>56</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="47"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="98"/>
       <c r="H60" s="6">
         <v>56</v>
       </c>
@@ -23198,9 +23138,9 @@
       <c r="D61" s="5">
         <v>57</v>
       </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="47"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="98"/>
       <c r="H61" s="6">
         <v>57</v>
       </c>
@@ -23361,9 +23301,9 @@
       <c r="D62" s="5">
         <v>58</v>
       </c>
-      <c r="E62" s="101"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="47"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="98"/>
       <c r="H62" s="6">
         <v>58</v>
       </c>
@@ -23524,9 +23464,9 @@
       <c r="D63" s="5">
         <v>59</v>
       </c>
-      <c r="E63" s="101"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="47"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="98"/>
       <c r="H63" s="6">
         <v>59</v>
       </c>
@@ -23687,9 +23627,9 @@
       <c r="D64" s="5">
         <v>60</v>
       </c>
-      <c r="E64" s="101"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="47"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="98"/>
       <c r="H64" s="6">
         <v>60</v>
       </c>
@@ -26577,23 +26517,65 @@
       <c r="AF974" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vwz16hkW+5MddJMxU6SKEGSnZ9uO5UyeTmHvpxoJbauxn91PDS5sVql0rk/pTkriKWGupiOHMwJw87FSFGc96Q==" saltValue="mJiy4kt5Qo7wdvSworzgVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wJH5eCjdR+L71wRSDSHxvtMCzvZm8iJ4DVibp0o4aKCrTCRWzA1cKmfdXR3AU1v7nda1tRcC65+hK0C79nbdpw==" saltValue="yPpqqYnHcXAjmUoBURz4ew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="88">
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G34"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:G64"/>
     <mergeCell ref="E36:F36"/>
@@ -26610,63 +26592,21 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:G34"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:AT64">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
@@ -26736,7 +26676,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="31">
@@ -26744,13 +26684,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="H3" s="88" t="str">
+      <c r="H3" s="37" t="str">
         <f>IF(H12=TRUE,TEXT("Il y a plus que "&amp;H10&amp;" Position",""))</f>
         <v>Il y a plus que 1 Position</v>
       </c>
@@ -26759,22 +26699,22 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="31">
         <v>10000</v>
       </c>
-      <c r="P4" s="89"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="31">
         <v>80</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="37">
         <f>D10+F10</f>
         <v>6</v>
       </c>
@@ -26811,43 +26751,43 @@
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="87" t="s">
+      <c r="O8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="87" t="s">
+      <c r="P8" s="36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -26885,21 +26825,21 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H11" s="90">
+      <c r="H11" s="39">
         <f>D10+F10</f>
         <v>6</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="39">
         <f>((J10/L10)*1000)</f>
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H12" s="91" t="b">
+      <c r="H12" s="40" t="b">
         <f>D10+F10&gt;=H10</f>
         <v>1</v>
       </c>
-      <c r="P12" s="92" t="b">
+      <c r="P12" s="41" t="b">
         <f>((J10/L10)*1000)&gt;=P10</f>
         <v>0</v>
       </c>
